--- a/Estimates.xlsx
+++ b/Estimates.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="13660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -29,9 +27,6 @@
     <t>https://www.naatp.org/resources/addiction-industry-directory</t>
   </si>
   <si>
-    <t>https://findaddictiontreatment.ny.gov</t>
-  </si>
-  <si>
     <t>https://find.ohiorecoveryhousing.org</t>
   </si>
   <si>
@@ -128,10 +123,6 @@
     <t xml:space="preserve">1- Create crawler to read all 20 pages          -2h
 2- Create crawl the individual link pages to fetch the details. -2h
 </t>
-  </si>
-  <si>
-    <t>1- Create a filter logic for parse the search     -2h
-2- Create crawler for all the pages. -2h</t>
   </si>
   <si>
     <t xml:space="preserve">1- Create crawler to read all  pages          -2h
@@ -263,6 +254,12 @@
 1- I found there are bot which stops crawling the website. It will be difficult to crawl the web site.
 </t>
     </r>
+  </si>
+  <si>
+    <t>https://findaddictiontreatment.ny.gov/#/results</t>
+  </si>
+  <si>
+    <t>PDF</t>
   </si>
 </sst>
 </file>
@@ -294,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,19 +306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -349,6 +334,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -370,28 +358,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -449,7 +417,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -507,7 +475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,7 +510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -719,7 +687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -730,411 +698,411 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="121.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="4" customWidth="1"/>
+    <col min="1" max="1" width="121.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="42">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="12" customFormat="1">
+      <c r="A3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="42">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="12" customFormat="1">
+      <c r="A7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="12" customFormat="1">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="18">
+    </row>
+    <row r="10" spans="1:3" ht="42">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="11" spans="1:3" s="12" customFormat="1">
+      <c r="A11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="C11" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="12" customFormat="1">
+      <c r="A12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4">
+    </row>
+    <row r="14" spans="1:3" ht="42">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row r="15" spans="1:3" s="12" customFormat="1">
+      <c r="A15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C15" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="12" customFormat="1">
+      <c r="A16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="12" customFormat="1">
+      <c r="A17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C17" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="42">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:3" s="12" customFormat="1">
+      <c r="A19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="12" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="42">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="42">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="42">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="42">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="168">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5">
         <v>3</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="4">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="12" customFormat="1">
+      <c r="A28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="12" customFormat="1">
+      <c r="A29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="12" customFormat="1">
+      <c r="A30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="42">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="42">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="4">
+    <row r="33" spans="1:3" ht="42">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="4">
+    <row r="34" spans="1:3" s="12" customFormat="1" ht="42">
+      <c r="A34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="42">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="1:3">
+      <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <f>SUM(C2:C35)</f>
-        <v>91</v>
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" location="/results"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3" display="http://choopersguide.com/find-addiction-treatment/recovery-residences/search/empty/where/empty/mile/empty/zip/empty "/>
     <hyperlink ref="A6" r:id="rId4"/>
@@ -1147,7 +1115,12 @@
     <hyperlink ref="A29" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
-  <drawing r:id="rId13"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId12"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Estimates.xlsx
+++ b/Estimates.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development Area\Eva-scrapper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="13660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -399,7 +404,7 @@
         <xdr:cNvPr id="1026" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -418,7 +423,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -687,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -697,18 +702,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="121.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="121.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -719,7 +724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="12" customFormat="1">
+    <row r="3" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>59</v>
       </c>
@@ -741,7 +746,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -752,7 +757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="42">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -763,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -774,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="12" customFormat="1">
+    <row r="7" spans="1:3" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -785,7 +790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1">
+    <row r="8" spans="1:3" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -796,7 +801,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="42">
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="12" customFormat="1">
+    <row r="11" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -829,8 +834,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="12" customFormat="1">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="9"/>
@@ -838,7 +843,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42">
+    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -849,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="42">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -860,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="12" customFormat="1">
+    <row r="15" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
@@ -871,7 +876,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="12" customFormat="1">
+    <row r="16" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
@@ -882,7 +887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="12" customFormat="1">
+    <row r="17" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
@@ -893,7 +898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="42">
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -904,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="12" customFormat="1">
+    <row r="19" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>2</v>
       </c>
@@ -915,7 +920,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="12" customFormat="1">
+    <row r="20" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
@@ -926,7 +931,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="42">
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -937,7 +942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="42">
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -948,7 +953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="42">
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -959,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="42">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -970,7 +975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="168">
+    <row r="25" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -981,7 +986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -992,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1003,7 +1008,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="12" customFormat="1">
+    <row r="28" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>21</v>
       </c>
@@ -1014,7 +1019,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="12" customFormat="1">
+    <row r="29" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>22</v>
       </c>
@@ -1025,7 +1030,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="12" customFormat="1">
+    <row r="30" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="42">
+    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="42">
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1058,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="42">
+    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="12" customFormat="1" ht="42">
+    <row r="34" spans="1:3" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
@@ -1080,7 +1085,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="42">
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1091,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
@@ -1113,10 +1118,11 @@
     <hyperlink ref="A19" r:id="rId9"/>
     <hyperlink ref="A28" r:id="rId10"/>
     <hyperlink ref="A29" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId13"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Estimates.xlsx
+++ b/Estimates.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>https://www.naatp.org/resources/addiction-industry-directory</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>PDF</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
         <xdr:cNvPr id="1026" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -423,7 +426,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +716,7 @@
     <col min="3" max="3" width="17" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -724,7 +727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>59</v>
       </c>
@@ -746,7 +749,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -757,7 +760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -768,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -779,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="C7" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -800,8 +806,11 @@
       <c r="C8" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -812,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,7 +832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -833,8 +842,11 @@
       <c r="C11" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -842,8 +854,11 @@
       <c r="C12" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D12" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -865,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
@@ -875,8 +890,11 @@
       <c r="C15" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
@@ -886,8 +904,11 @@
       <c r="C16" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
@@ -897,8 +918,11 @@
       <c r="C17" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D17" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -909,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>2</v>
       </c>
@@ -919,8 +943,11 @@
       <c r="C19" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
@@ -930,8 +957,11 @@
       <c r="C20" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D20" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -942,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -953,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -964,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -975,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -986,7 +1016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -997,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1008,7 +1038,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>21</v>
       </c>
@@ -1019,7 +1049,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>22</v>
       </c>
@@ -1030,7 +1060,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
@@ -1040,8 +1070,11 @@
       <c r="C30" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D30" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1052,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>

--- a/Estimates.xlsx
+++ b/Estimates.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development Area\Eva-scrapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\Eva-scrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>https://www.naatp.org/resources/addiction-industry-directory</t>
   </si>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,7 +407,7 @@
         <xdr:cNvPr id="1026" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -426,7 +426,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
@@ -1117,8 +1117,11 @@
       <c r="C34" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D34" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>

--- a/Estimates.xlsx
+++ b/Estimates.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\Eva-scrapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development Area\Eva-scrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,7 +407,7 @@
         <xdr:cNvPr id="1026" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -426,7 +426,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,8 +1157,8 @@
     <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+  <drawing r:id="rId14"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
